--- a/public/All_stock_card.xlsx
+++ b/public/All_stock_card.xlsx
@@ -15,75 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>ลำดับ</t>
   </si>
   <si>
-    <t>ประเภท</t>
-  </si>
-  <si>
-    <t>สภานะ</t>
-  </si>
-  <si>
-    <t>รายการเลขที่</t>
-  </si>
-  <si>
-    <t>จำนวน</t>
-  </si>
-  <si>
-    <t>จาก</t>
-  </si>
-  <si>
-    <t>ไป</t>
-  </si>
-  <si>
-    <t>คงเหลือ</t>
-  </si>
-  <si>
-    <t>วันที่ทำรายการ</t>
-  </si>
-  <si>
-    <t>ขาย</t>
-  </si>
-  <si>
-    <t>สำเร็จ</t>
-  </si>
-  <si>
-    <t>SO-20200516165822</t>
-  </si>
-  <si>
-    <t>คลังสินค้าหลัก</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2020-05-16 00:00:00</t>
-  </si>
-  <si>
-    <t>ปรับ</t>
-  </si>
-  <si>
-    <t>AD-20200516161043</t>
-  </si>
-  <si>
-    <t>โอน</t>
-  </si>
-  <si>
-    <t>TF-20200516181731</t>
-  </si>
-  <si>
-    <t>คลังสินค้าย่อย</t>
-  </si>
-  <si>
-    <t>TF-20200516181835</t>
-  </si>
-  <si>
-    <t>ซื้อ</t>
-  </si>
-  <si>
-    <t>PO-20200516171328</t>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>อีเมล์</t>
+  </si>
+  <si>
+    <t>เบอร์โทรศัพท์</t>
+  </si>
+  <si>
+    <t>วันที่สร้าง</t>
+  </si>
+  <si>
+    <t>ศุภเมธ</t>
+  </si>
+  <si>
+    <t>เมษประสาท</t>
+  </si>
+  <si>
+    <t>supamet.mes@gmail.com</t>
+  </si>
+  <si>
+    <t>0922466715</t>
+  </si>
+  <si>
+    <t>2020-05-02 15:33:23</t>
   </si>
 </sst>
 </file>
@@ -439,26 +403,23 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B1" sqref="B1:I7"/>
+      <selection activeCell="B1" sqref="B1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="6.873322" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.051605" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.051605" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.012726" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.873322" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="17.477875" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="17.477875" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9.131699" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="23.271103" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.586456" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.725861" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="16.299591" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="23.271103" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,188 +438,25 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:7">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1">
-        <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1">
-        <v>110</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
